--- a/biology/Botanique/Flore_endémique_de_La_Réunion/Flore_endémique_de_La_Réunion.xlsx
+++ b/biology/Botanique/Flore_endémique_de_La_Réunion/Flore_endémique_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Flore_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme beaucoup d'îles voisines telles que Madagascar, la Réunion, reconnue pour la diversité de ses paysages, présente un fort taux d'endémisme, surtout végétal.  La biodiversité est très riche dans le milieu naturel. Ainsi le nombre d'espèces végétales endémiques par unité de surface y serait trois fois supérieur à celui de Hawaï et cinq fois à celui des Galapagos[1]. Il y aurait ainsi 160 plantes à fleurs endémiques dans ce département d'outre-mer français. Ses hauteurs sauvages sont devenues un parc national appelé parc national de La Réunion le 5 mars 2007.
-Nombreux sont les villages, lieux-dits ou ravines qui portent le nom d'une plante endémique ou indigène de l'île : Takamaka, Tan rouge, Plaine d'Affouches, Pente Benjoin[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme beaucoup d'îles voisines telles que Madagascar, la Réunion, reconnue pour la diversité de ses paysages, présente un fort taux d'endémisme, surtout végétal.  La biodiversité est très riche dans le milieu naturel. Ainsi le nombre d'espèces végétales endémiques par unité de surface y serait trois fois supérieur à celui de Hawaï et cinq fois à celui des Galapagos. Il y aurait ainsi 160 plantes à fleurs endémiques dans ce département d'outre-mer français. Ses hauteurs sauvages sont devenues un parc national appelé parc national de La Réunion le 5 mars 2007.
+Nombreux sont les villages, lieux-dits ou ravines qui portent le nom d'une plante endémique ou indigène de l'île : Takamaka, Tan rouge, Plaine d'Affouches, Pente Benjoin.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Flore_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,46 +524,287 @@
           <t>Liste des espèces végétales endémiques de La Réunion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les noms scientifiques sont classés selon l'ordre alphabétique.
-A
-Acacia heterophylla - Tamarin des Hauts.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms scientifiques sont classés selon l'ordre alphabétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acacia heterophylla - Tamarin des Hauts.
 Aloe macra - Mazambron marron.
 Amauropelta salazica
 Angraecum microphyton
 Angraecum patens
 Arnottia imbellis
-Astelia hemichrysa - Ananas marron.
-B
-Badula decumbens.
+Astelia hemichrysa - Ananas marron.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Badula decumbens.
 Badula borbonica.
 Blechnum marginatum
 Bonniera appendiculata
 Bonniera corrugata
-Bulbophyllum herbula
-C
-Chamaesyce reconciliationis
+Bulbophyllum herbula</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamaesyce reconciliationis
 Cyathea glauca. - fougère arborescente (fanjan femelle)
 Cyperus expansus - Papyrus.
-Cynoglossum borbonicum 
-D
-Delosperma napiforme - Lavangère.
+Cynoglossum borbonicum </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Delosperma napiforme - Lavangère.
 Dombeya ficulnea - Petit mahot.
 Dombeya elegans - Mahot rose.
-Dombeya pilosa.
-E
-Embelia demissa.
+Dombeya pilosa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Embelia demissa.
 Erica arborescens - Branle filao.
 Erica reunionensis - Branle vert.
 Eugenia buxifolia - Bois de nèfles à petites feuilles.
 Eulophia borbonica.
 Eulophia coccifera.
-Eulophia versicolor.
-F
-Forgesia racemosa - Bois de Laurent Martin.
-H
-Helichrysum heliotropifolium.
+Eulophia versicolor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Forgesia racemosa - Bois de Laurent Martin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Helichrysum heliotropifolium.
 Heterochaenia borbonica.
 Heterochaenia ensifolia.
 Heterochaenia fragrans.
@@ -559,32 +812,270 @@
 Hibiscus columnaris - Mahot rempart.
 Hubertia ambavilla - Ambaville.
 Hubertia tomentosa - Ambaville blanc.
-Hyophorbe indica - Palmiste poison.
-L
-Latania lontaroides - Latanier rouge.
-M
-Melicope coodeana.
-P
-Peperomia pedunculata
+Hyophorbe indica - Palmiste poison.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Latania lontaroides - Latanier rouge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Melicope coodeana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Peperomia pedunculata
 Polyscias coriacea.
 Psiadia aspera.
 Psiadia melastomatoides.
 Psiadia retusa.
 Psiadia rivalsii.
-Psiadia sericea.
-R
-Ruizia cordata - Bois de senteur blanc.
-S
-Sideroxylon borbonicum - Bois de fer bâtard
-Sophora denudata - Petit tamarin des Hauts
-T
-Tabernaemontana persicariaefolia.
+Psiadia sericea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ruizia cordata - Bois de senteur blanc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sideroxylon borbonicum - Bois de fer bâtard
+Sophora denudata - Petit tamarin des Hauts</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Tabernaemontana persicariaefolia.
 Tambourissa elliptica - Bois de bombarde.
 Erica galioides - Thym marron
 Tournefortia bojeri.
-Turraea cadetii.
-U
-Usnea barbata - Barbe de Jupiter.</t>
+Turraea cadetii.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Flore_endémique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_end%C3%A9mique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des espèces végétales endémiques de La Réunion</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Usnea barbata - Barbe de Jupiter.</t>
         </is>
       </c>
     </row>
